--- a/十鼓螢幕高度.xlsx
+++ b/十鼓螢幕高度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43A7CE7A-FD6E-48C5-8645-008B4C15F61E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D454A7AC-259F-451C-9D5F-D32B41E615AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19185" yWindow="255" windowWidth="9615" windowHeight="15345" xr2:uid="{79FCD48B-FC7E-4108-9F93-C3A8A5759F07}"/>
   </bookViews>
@@ -383,15 +383,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEA2469-466D-49C2-A678-973686D1C15F}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -407,8 +407,14 @@
       <c r="F1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>550</v>
       </c>
@@ -426,8 +432,16 @@
         <f>B2</f>
         <v>1100</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f>F2+G21</f>
+        <v>1800</v>
+      </c>
+      <c r="H2">
+        <f>C2</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>C2</f>
         <v>2100</v>
@@ -441,25 +455,33 @@
         <v>3650</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E12" si="0">A3</f>
+        <f t="shared" ref="E3:E10" si="0">A3</f>
         <v>2100</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F12" si="1">B3</f>
+        <f t="shared" ref="F3:F10" si="1">B3</f>
         <v>2650</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" ref="G3:G10" si="2">F3+G22</f>
+        <v>3350</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H10" si="3">C3</f>
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A12" si="2">C3</f>
+        <f t="shared" ref="A4:A10" si="4">C3</f>
         <v>3650</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B12" si="3">A4+C22</f>
+        <f t="shared" ref="B4:B10" si="5">A4+C22</f>
         <v>4200</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C12" si="4">B4+1000</f>
+        <f t="shared" ref="C4:C10" si="6">B4+1000</f>
         <v>5200</v>
       </c>
       <c r="E4">
@@ -470,18 +492,26 @@
         <f t="shared" si="1"/>
         <v>4200</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>4900</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5200</v>
       </c>
       <c r="B5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5750</v>
       </c>
       <c r="C5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6750</v>
       </c>
       <c r="E5">
@@ -492,18 +522,26 @@
         <f t="shared" si="1"/>
         <v>5750</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>6450</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6750</v>
       </c>
       <c r="B6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7300</v>
       </c>
       <c r="C6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8300</v>
       </c>
       <c r="E6">
@@ -514,18 +552,26 @@
         <f t="shared" si="1"/>
         <v>7300</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>8300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8300</v>
       </c>
       <c r="B7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8850</v>
       </c>
       <c r="C7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9850</v>
       </c>
       <c r="E7">
@@ -536,18 +582,26 @@
         <f t="shared" si="1"/>
         <v>8850</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>9550</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>9850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9850</v>
       </c>
       <c r="B8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10400</v>
       </c>
       <c r="C8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11400</v>
       </c>
       <c r="E8">
@@ -558,18 +612,26 @@
         <f t="shared" si="1"/>
         <v>10400</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>11100</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11400</v>
       </c>
       <c r="B9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11950</v>
       </c>
       <c r="C9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12950</v>
       </c>
       <c r="E9">
@@ -580,18 +642,26 @@
         <f t="shared" si="1"/>
         <v>11950</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>12650</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>12950</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12950</v>
       </c>
       <c r="B10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>13500</v>
       </c>
       <c r="C10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>14500</v>
       </c>
       <c r="E10">
@@ -602,8 +672,16 @@
         <f t="shared" si="1"/>
         <v>13500</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>14200</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>B2</f>
         <v>1100</v>
@@ -616,65 +694,109 @@
         <f>A19-B19</f>
         <v>550</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>550</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>550</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>550</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>550</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>550</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>550</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>550</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>550</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>550</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>550</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>550</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>550</v>
+      </c>
+      <c r="G32">
+        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/十鼓螢幕高度.xlsx
+++ b/十鼓螢幕高度.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UI課程\團體專題\3.程式\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D454A7AC-259F-451C-9D5F-D32B41E615AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF9320A-3FFB-4895-820B-C34931BA6FDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19185" yWindow="255" windowWidth="9615" windowHeight="15345" xr2:uid="{79FCD48B-FC7E-4108-9F93-C3A8A5759F07}"/>
+    <workbookView xWindow="15420" yWindow="255" windowWidth="13380" windowHeight="15345" xr2:uid="{79FCD48B-FC7E-4108-9F93-C3A8A5759F07}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -383,15 +383,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDEA2469-466D-49C2-A678-973686D1C15F}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="2.75" customWidth="1"/>
+    <col min="9" max="9" width="2.375" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -413,8 +418,26 @@
       <c r="H1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>3</v>
+      </c>
+      <c r="O1">
+        <v>1</v>
+      </c>
+      <c r="P1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>550</v>
       </c>
@@ -440,8 +463,22 @@
         <f>C2</f>
         <v>2100</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>500</v>
+      </c>
+      <c r="K2">
+        <f>J2+K19</f>
+        <v>1000</v>
+      </c>
+      <c r="L2">
+        <v>1500</v>
+      </c>
+      <c r="N2">
+        <f>J2</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>C2</f>
         <v>2100</v>
@@ -470,18 +507,34 @@
         <f t="shared" ref="H3:H10" si="3">C3</f>
         <v>3650</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <f>L2</f>
+        <v>1500</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K10" si="4">J3+K20</f>
+        <v>2000</v>
+      </c>
+      <c r="L3">
+        <f>K3+K19</f>
+        <v>2500</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N12" si="5">J3</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A10" si="4">C3</f>
+        <f t="shared" ref="A4:A10" si="6">C3</f>
         <v>3650</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B10" si="5">A4+C22</f>
+        <f t="shared" ref="B4:B10" si="7">A4+C22</f>
         <v>4200</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C10" si="6">B4+1000</f>
+        <f t="shared" ref="C4:C10" si="8">B4+1000</f>
         <v>5200</v>
       </c>
       <c r="E4">
@@ -500,18 +553,34 @@
         <f t="shared" si="3"/>
         <v>5200</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <f t="shared" ref="J4:J10" si="9">L3</f>
+        <v>2500</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L10" si="10">K4+K20</f>
+        <v>3500</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="5"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5200</v>
       </c>
       <c r="B5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5750</v>
       </c>
       <c r="C5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6750</v>
       </c>
       <c r="E5">
@@ -530,18 +599,34 @@
         <f t="shared" si="3"/>
         <v>6750</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <f t="shared" si="9"/>
+        <v>3500</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>4000</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="10"/>
+        <v>4500</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="5"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6750</v>
       </c>
       <c r="B6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7300</v>
       </c>
       <c r="C6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8300</v>
       </c>
       <c r="E6">
@@ -560,18 +645,34 @@
         <f t="shared" si="3"/>
         <v>8300</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <f t="shared" si="9"/>
+        <v>4500</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="10"/>
+        <v>5500</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="5"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8300</v>
       </c>
       <c r="B7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8850</v>
       </c>
       <c r="C7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9850</v>
       </c>
       <c r="E7">
@@ -590,18 +691,34 @@
         <f t="shared" si="3"/>
         <v>9850</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <f t="shared" si="9"/>
+        <v>5500</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>6000</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="10"/>
+        <v>6500</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9850</v>
       </c>
       <c r="B8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10400</v>
       </c>
       <c r="C8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>11400</v>
       </c>
       <c r="E8">
@@ -620,18 +737,34 @@
         <f t="shared" si="3"/>
         <v>11400</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <f t="shared" si="9"/>
+        <v>6500</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>7000</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="10"/>
+        <v>7500</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="5"/>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11400</v>
       </c>
       <c r="B9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11950</v>
       </c>
       <c r="C9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>12950</v>
       </c>
       <c r="E9">
@@ -650,18 +783,34 @@
         <f t="shared" si="3"/>
         <v>12950</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <f t="shared" si="9"/>
+        <v>7500</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>8000</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="10"/>
+        <v>8500</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12950</v>
       </c>
       <c r="B10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>13500</v>
       </c>
       <c r="C10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14500</v>
       </c>
       <c r="E10">
@@ -680,8 +829,36 @@
         <f t="shared" si="3"/>
         <v>14500</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <f t="shared" si="9"/>
+        <v>8500</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>9000</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="10"/>
+        <v>9500</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="5"/>
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>B2</f>
         <v>1100</v>
@@ -697,101 +874,140 @@
       <c r="G19">
         <v>700</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G20">
         <v>700</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>550</v>
       </c>
       <c r="G21">
         <v>700</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>550</v>
       </c>
       <c r="G22">
         <v>700</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C23">
         <v>550</v>
       </c>
       <c r="G23">
         <v>700</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>550</v>
       </c>
       <c r="G24">
         <v>700</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C25">
         <v>550</v>
       </c>
       <c r="G25">
         <v>700</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C26">
         <v>550</v>
       </c>
       <c r="G26">
         <v>700</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>550</v>
       </c>
       <c r="G27">
         <v>700</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C28">
         <v>550</v>
       </c>
       <c r="G28">
         <v>700</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C29">
         <v>550</v>
       </c>
       <c r="G29">
         <v>700</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C30">
         <v>550</v>
       </c>
       <c r="G30">
         <v>700</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C31">
         <v>550</v>
       </c>
       <c r="G31">
         <v>700</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C32">
         <v>550</v>
       </c>
